--- a/data/trans_orig/P20B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2834</v>
+        <v>1994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9687</v>
+        <v>9712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3365286189785919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1642166808208674</v>
+        <v>0.1155199294136532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5613108093223499</v>
+        <v>0.5628084213051436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6383</v>
+        <v>6317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17935</v>
+        <v>17980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2353816433673929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1354035899175243</v>
+        <v>0.1340036412197336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3804495089614954</v>
+        <v>0.3814101969235317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>16904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10369</v>
+        <v>10967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23900</v>
+        <v>24458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2624867345699835</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1610158918833331</v>
+        <v>0.1703026592166598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3711311026160977</v>
+        <v>0.3797814061434572</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11450</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7570</v>
+        <v>7545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14423</v>
+        <v>15263</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.663471381021408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4386891906776501</v>
+        <v>0.4371915786948564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8357833191791325</v>
+        <v>0.8844800705863468</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>36046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29207</v>
+        <v>29162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40759</v>
+        <v>40825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.764618356632607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6195504910385055</v>
+        <v>0.6185898030764687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8645964100824757</v>
+        <v>0.8659963587802665</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -857,19 +857,19 @@
         <v>47495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40499</v>
+        <v>39941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54030</v>
+        <v>53432</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7375132654300165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6288688973839023</v>
+        <v>0.6202185938565429</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8389841081166669</v>
+        <v>0.8296973407833403</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7787</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3751</v>
+        <v>3857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13311</v>
+        <v>13506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2088702706017854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1005977090401761</v>
+        <v>0.1034413571986999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3570367433133384</v>
+        <v>0.3622482011871786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10167</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5706</v>
+        <v>5118</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17555</v>
+        <v>17525</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1349952064158405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07576116385692734</v>
+        <v>0.06795837768607396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2330959406224685</v>
+        <v>0.2327056397334304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>17954</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11344</v>
+        <v>11045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26378</v>
+        <v>27201</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1594571374683019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1007506086986493</v>
+        <v>0.09809548621613939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.234272372142322</v>
+        <v>0.2415856635668141</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>29496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23972</v>
+        <v>23777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33532</v>
+        <v>33426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7911297293982146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6429632566866618</v>
+        <v>0.6377517988128217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8994022909598239</v>
+        <v>0.8965586428013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -1053,19 +1053,19 @@
         <v>65144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57756</v>
+        <v>57786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69605</v>
+        <v>70193</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8650047935841595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.766904059377532</v>
+        <v>0.7672943602665699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9242388361430728</v>
+        <v>0.9320416223139261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -1074,19 +1074,19 @@
         <v>94640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>86216</v>
+        <v>85393</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101250</v>
+        <v>101549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8405428625316981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7657276278576781</v>
+        <v>0.7584143364331859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.899249391301351</v>
+        <v>0.9019045137838607</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>8509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4233</v>
+        <v>4106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15368</v>
+        <v>15449</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2247233272560284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1117935345424123</v>
+        <v>0.108429295146461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4058776979681206</v>
+        <v>0.4080178523053501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>16745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10757</v>
+        <v>11122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23613</v>
+        <v>23877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2905241390016266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.186630185058348</v>
+        <v>0.1929682978103035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4096843178349459</v>
+        <v>0.4142548695459482</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1220,19 +1220,19 @@
         <v>25254</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17482</v>
+        <v>17248</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34774</v>
+        <v>34573</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.26443596852516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.183057473195388</v>
+        <v>0.1806024832805381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3641220091424006</v>
+        <v>0.3620100076866899</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>29355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22496</v>
+        <v>22415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33631</v>
+        <v>33758</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7752766727439715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5941223020318795</v>
+        <v>0.5919821476946497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8882064654575877</v>
+        <v>0.891570704853539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -1270,19 +1270,19 @@
         <v>40893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34025</v>
+        <v>33761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46881</v>
+        <v>46516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7094758609983733</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5903156821650541</v>
+        <v>0.5857451304540517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8133698149416523</v>
+        <v>0.8070317021896964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -1291,19 +1291,19 @@
         <v>70248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60728</v>
+        <v>60929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78020</v>
+        <v>78254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7355640314748401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6358779908575996</v>
+        <v>0.6379899923133093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.816942526804612</v>
+        <v>0.8193975167194617</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7771</v>
+        <v>7525</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18871</v>
+        <v>19200</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3140948837309699</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1868907589444336</v>
+        <v>0.1809768657609074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4538628516748223</v>
+        <v>0.4617785235437872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6736</v>
+        <v>6913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19050</v>
+        <v>20162</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1779542755059355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09866284476284026</v>
+        <v>0.1012463273577094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.279011275421699</v>
+        <v>0.2953030965985186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1437,19 +1437,19 @@
         <v>25209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17673</v>
+        <v>17170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34663</v>
+        <v>34368</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2294808276728558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1608770907300987</v>
+        <v>0.1562988038207406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3155336712209048</v>
+        <v>0.3128487514224574</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>28519</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22707</v>
+        <v>22378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33807</v>
+        <v>34053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6859051162690302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5461371483251777</v>
+        <v>0.5382214764562128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8131092410555664</v>
+        <v>0.8190231342390926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1487,19 +1487,19 @@
         <v>56126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49226</v>
+        <v>48114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61540</v>
+        <v>61363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8220457244940645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7209887245783012</v>
+        <v>0.7046969034014809</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9013371552371597</v>
+        <v>0.8987536726422906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -1508,19 +1508,19 @@
         <v>84645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75191</v>
+        <v>75486</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>92181</v>
+        <v>92684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7705191723271443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6844663287790951</v>
+        <v>0.6871512485775426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8391229092699012</v>
+        <v>0.8437011961792594</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>35163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.262447049217092</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1633,19 +1633,19 @@
         <v>50158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2019519654144937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1654,19 +1654,19 @@
         <v>85321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2231504842371767</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>98819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88572</v>
+        <v>88529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109456</v>
+        <v>108555</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7375529507829081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6610762406264841</v>
+        <v>0.6607542415718272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8169475302441982</v>
+        <v>0.8102211531013199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>189</v>
@@ -1704,19 +1704,19 @@
         <v>198209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185267</v>
+        <v>184370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209307</v>
+        <v>209720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7980480345855063</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7459388053780496</v>
+        <v>0.742329909501264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8427338698235841</v>
+        <v>0.844394393109308</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>287</v>
@@ -1725,19 +1725,19 @@
         <v>297028</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>281876</v>
+        <v>281022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312950</v>
+        <v>313327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7768495157628234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7372225077604736</v>
+        <v>0.734989292263414</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.818492268854669</v>
+        <v>0.8194796637572503</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>14794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9008</v>
+        <v>9196</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21123</v>
+        <v>21665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.325950800055323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1984671138080576</v>
+        <v>0.2026115690327421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4653969051286369</v>
+        <v>0.4773271448980641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2090,19 +2090,19 @@
         <v>18827</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12264</v>
+        <v>11953</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28127</v>
+        <v>27293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2527628490032957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1646431850131937</v>
+        <v>0.1604676642505156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3776114606030967</v>
+        <v>0.3664116543162237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2111,19 +2111,19 @@
         <v>33622</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23623</v>
+        <v>24132</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43760</v>
+        <v>44459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2804738924784299</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1970617105661505</v>
+        <v>0.2013079414000206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3650460239808335</v>
+        <v>0.3708846864230028</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>30594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24265</v>
+        <v>23723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36380</v>
+        <v>36192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.674049199944677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5346030948713628</v>
+        <v>0.5226728551019363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8015328861919419</v>
+        <v>0.7973884309672581</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -2161,19 +2161,19 @@
         <v>55659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46359</v>
+        <v>47193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62222</v>
+        <v>62533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7472371509967043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.622388539396903</v>
+        <v>0.6335883456837763</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8353568149868063</v>
+        <v>0.8395323357494844</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -2182,19 +2182,19 @@
         <v>86252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76114</v>
+        <v>75415</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96251</v>
+        <v>95742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7195261075215701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6349539760191667</v>
+        <v>0.6291153135769977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8029382894338499</v>
+        <v>0.7986920585999794</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>15842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9577</v>
+        <v>8746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24016</v>
+        <v>23543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2572771119596611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1555213044834807</v>
+        <v>0.1420373483561283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3900132523599871</v>
+        <v>0.3823404901722106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2307,19 +2307,19 @@
         <v>26710</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17500</v>
+        <v>18323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35316</v>
+        <v>36489</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2772707348629038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1816664832455682</v>
+        <v>0.1902083912433237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3666053817564132</v>
+        <v>0.3787855220637136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2328,19 +2328,19 @@
         <v>42552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30846</v>
+        <v>32900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54014</v>
+        <v>56567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2694741849578164</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1953407657224938</v>
+        <v>0.2083486955272429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3420572982715371</v>
+        <v>0.3582258267244573</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>45735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37561</v>
+        <v>38034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52000</v>
+        <v>52831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7427228880403389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6099867476400126</v>
+        <v>0.6176595098277894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.844478695516519</v>
+        <v>0.8579626516438716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -2378,19 +2378,19 @@
         <v>69622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61016</v>
+        <v>59843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78832</v>
+        <v>78009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7227292651370962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6333946182435868</v>
+        <v>0.6212144779362864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.818333516754431</v>
+        <v>0.8097916087566759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -2399,19 +2399,19 @@
         <v>115357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>103895</v>
+        <v>101342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>127063</v>
+        <v>125009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7305258150421836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6579427017284629</v>
+        <v>0.6417741732755433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8046592342775062</v>
+        <v>0.7916513044727574</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>16038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9269</v>
+        <v>9379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23951</v>
+        <v>23708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3361254418322164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1942635256332275</v>
+        <v>0.1965680378129656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5019790376487305</v>
+        <v>0.49688393612515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2524,19 +2524,19 @@
         <v>17308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10510</v>
+        <v>10433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26216</v>
+        <v>26552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2293614749226143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1392851550631697</v>
+        <v>0.1382603406381112</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3474124301621288</v>
+        <v>0.3518622183734301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -2545,19 +2545,19 @@
         <v>33345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23751</v>
+        <v>22781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45502</v>
+        <v>44513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2707181310666952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1928296583599683</v>
+        <v>0.1849549693184663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3694125042808794</v>
+        <v>0.3613885369899587</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>31675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23762</v>
+        <v>24005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38444</v>
+        <v>38334</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6638745581677836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4980209623512696</v>
+        <v>0.5031160638748502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8057364743667728</v>
+        <v>0.8034319621870344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -2595,19 +2595,19 @@
         <v>58152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49244</v>
+        <v>48908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64950</v>
+        <v>65027</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7706385250773857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6525875698378713</v>
+        <v>0.6481377816265699</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8607148449368303</v>
+        <v>0.8617396593618888</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>80</v>
@@ -2616,19 +2616,19 @@
         <v>89828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77671</v>
+        <v>78660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99422</v>
+        <v>100392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7292818689333048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6305874957191206</v>
+        <v>0.6386114630100415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8071703416400319</v>
+        <v>0.8150450306815343</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15080</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9791</v>
+        <v>9740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21921</v>
+        <v>22356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2840585543689848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1844412094225888</v>
+        <v>0.1834792663827321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4129335674728218</v>
+        <v>0.4211198323015928</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -2741,19 +2741,19 @@
         <v>19418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13054</v>
+        <v>12518</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28388</v>
+        <v>27881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2200199928864408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1479119989118662</v>
+        <v>0.1418301366010688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3216523513819551</v>
+        <v>0.3159089711427452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -2762,19 +2762,19 @@
         <v>34498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24652</v>
+        <v>25816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45465</v>
+        <v>45541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2440719744444631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1744082874146993</v>
+        <v>0.1826485407997774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3216609742567319</v>
+        <v>0.3221991130510027</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>38007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31166</v>
+        <v>30731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43296</v>
+        <v>43347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7159414456310151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5870664325271772</v>
+        <v>0.5788801676984077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8155587905774109</v>
+        <v>0.8165207336172681</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -2812,19 +2812,19 @@
         <v>68839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59869</v>
+        <v>60376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75203</v>
+        <v>75739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7799800071135592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.678347648618045</v>
+        <v>0.684091028857255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8520880010881339</v>
+        <v>0.8581698633989312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -2833,19 +2833,19 @@
         <v>106846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95879</v>
+        <v>95803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116692</v>
+        <v>115528</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.755928025555537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6783390257432681</v>
+        <v>0.6778008869489972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8255917125853007</v>
+        <v>0.8173514592002227</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2972298742433067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -2958,19 +2958,19 @@
         <v>82264</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2459032968918332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -2979,19 +2979,19 @@
         <v>144017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2655673836358959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>146011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131511</v>
+        <v>132116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158291</v>
+        <v>159313</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7027701257566933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6329815838853863</v>
+        <v>0.6358933734609205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7618774304911515</v>
+        <v>0.7667926355783864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -3029,19 +3029,19 @@
         <v>252272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236504</v>
+        <v>235899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>267684</v>
+        <v>269384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7540967031081668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.706961216849612</v>
+        <v>0.7051515641131941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8001645266210058</v>
+        <v>0.8052458382930046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>371</v>
@@ -3050,19 +3050,19 @@
         <v>398284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377261</v>
+        <v>375920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418316</v>
+        <v>418203</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7344326163641042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6956680050474281</v>
+        <v>0.6931946094065858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7713717228723851</v>
+        <v>0.771163292771186</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>18235</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12230</v>
+        <v>12256</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23971</v>
+        <v>24001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5061913090692788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3395096236337921</v>
+        <v>0.3402292086903889</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6654144504955886</v>
+        <v>0.6662512507523033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3415,19 +3415,19 @@
         <v>13786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7495</v>
+        <v>7427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21024</v>
+        <v>19805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2987703709920473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1624350166990901</v>
+        <v>0.1609697333734861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.455646710234212</v>
+        <v>0.4292081433386506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3436,19 +3436,19 @@
         <v>32021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23590</v>
+        <v>23330</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41214</v>
+        <v>40406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3897100316195694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2870974089981965</v>
+        <v>0.283929624229126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5015833620874789</v>
+        <v>0.4917544481208841</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>17789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12053</v>
+        <v>12023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23794</v>
+        <v>23768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4938086909307212</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3345855495044114</v>
+        <v>0.3337487492476967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6604903763662079</v>
+        <v>0.659770791309611</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -3486,19 +3486,19 @@
         <v>32356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25118</v>
+        <v>26337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38647</v>
+        <v>38715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7012296290079527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5443532897657879</v>
+        <v>0.5707918566613494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8375649833009099</v>
+        <v>0.8390302666265139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -3507,19 +3507,19 @@
         <v>50146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40953</v>
+        <v>41761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58577</v>
+        <v>58837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6102899683804306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4984166379125213</v>
+        <v>0.5082455518791166</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.712902591001804</v>
+        <v>0.7160703757708743</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6819</v>
+        <v>7141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18752</v>
+        <v>19486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2685446351441769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1492708603444879</v>
+        <v>0.1563403533107115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4105232495317072</v>
+        <v>0.4265891873300385</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3632,19 +3632,19 @@
         <v>15544</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9061</v>
+        <v>8964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23832</v>
+        <v>23656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2018501006101235</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1176617601485929</v>
+        <v>0.1164032959431545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3094691041050754</v>
+        <v>0.3071886397111189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3653,19 +3653,19 @@
         <v>27811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18912</v>
+        <v>19272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38587</v>
+        <v>37862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.226681808631317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1541519069016723</v>
+        <v>0.1570865931650991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3145184977568685</v>
+        <v>0.3086079242198492</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>33412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26927</v>
+        <v>26193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38860</v>
+        <v>38538</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7314553648558231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5894767504682927</v>
+        <v>0.5734108126699615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8507291396555121</v>
+        <v>0.8436596466892885</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -3703,19 +3703,19 @@
         <v>61464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53176</v>
+        <v>53352</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67947</v>
+        <v>68044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7981498993898765</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6905308958949247</v>
+        <v>0.6928113602888811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.882338239851407</v>
+        <v>0.8835967040568456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -3724,19 +3724,19 @@
         <v>94875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84099</v>
+        <v>84824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103774</v>
+        <v>103414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.773318191368683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6854815022431315</v>
+        <v>0.6913920757801509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8458480930983278</v>
+        <v>0.8429134068349009</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>11369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6176</v>
+        <v>6121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19075</v>
+        <v>17999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3425029090791604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1860654083725415</v>
+        <v>0.1844152028382307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5746552994020435</v>
+        <v>0.5422454155850254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3849,19 +3849,19 @@
         <v>14019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8020</v>
+        <v>8266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21670</v>
+        <v>22015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2510386429320665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1436136852663285</v>
+        <v>0.1480111729714335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.388033187708104</v>
+        <v>0.3942172681679943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3870,19 +3870,19 @@
         <v>25388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17057</v>
+        <v>16308</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35192</v>
+        <v>34911</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2851365447638327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1915722268824399</v>
+        <v>0.1831548331609346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3952436568843746</v>
+        <v>0.3920862314285435</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>21824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14118</v>
+        <v>15194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27017</v>
+        <v>27072</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6574970909208396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4253447005979564</v>
+        <v>0.457754584414975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8139345916274585</v>
+        <v>0.8155847971617692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3920,19 +3920,19 @@
         <v>41826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34175</v>
+        <v>33830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47825</v>
+        <v>47579</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7489613570679335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.611966812291896</v>
+        <v>0.6057827318320056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8563863147336715</v>
+        <v>0.8519888270285665</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -3941,19 +3941,19 @@
         <v>63650</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53846</v>
+        <v>54127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71981</v>
+        <v>72730</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7148634552361673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6047563431156255</v>
+        <v>0.6079137685714564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8084277731175602</v>
+        <v>0.8168451668390653</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>12881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7791</v>
+        <v>7324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20043</v>
+        <v>19127</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2707069003711629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1637446657173316</v>
+        <v>0.1539311584076916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4212314109312772</v>
+        <v>0.4019964717847894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4066,19 +4066,19 @@
         <v>22298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14874</v>
+        <v>14388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33336</v>
+        <v>31560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2462835626216672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1642867371894379</v>
+        <v>0.158916638701084</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3682108231230062</v>
+        <v>0.3485948102075608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -4087,19 +4087,19 @@
         <v>35178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24995</v>
+        <v>25271</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46713</v>
+        <v>46527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2546973302615914</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1809670907937663</v>
+        <v>0.1829707796853527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3382152777921845</v>
+        <v>0.336863995806517</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>34700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27538</v>
+        <v>28454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39790</v>
+        <v>40257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7292930996288371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5787685890687225</v>
+        <v>0.598003528215211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8362553342826683</v>
+        <v>0.8460688415923086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -4137,19 +4137,19 @@
         <v>68238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57200</v>
+        <v>58976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75662</v>
+        <v>76148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7537164373783328</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6317891768769938</v>
+        <v>0.6514051897924392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.835713262810562</v>
+        <v>0.841083361298916</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -4158,19 +4158,19 @@
         <v>102939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91404</v>
+        <v>91590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113122</v>
+        <v>112846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7453026697384086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6617847222078156</v>
+        <v>0.663136004193483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8190329092062337</v>
+        <v>0.8170292203146473</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>54751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3369781723023659</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -4283,19 +4283,19 @@
         <v>65647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2435591731291409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -4304,19 +4304,19 @@
         <v>120398</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2786938489210258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>107726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96170</v>
+        <v>94500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119828</v>
+        <v>119436</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6630218276976342</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5918993369241378</v>
+        <v>0.5816220041304593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7375059516421061</v>
+        <v>0.735097520450013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -4354,19 +4354,19 @@
         <v>203884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187636</v>
+        <v>188222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217746</v>
+        <v>217436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7564408268708591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6961592118400635</v>
+        <v>0.6983330087972852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8078696519835695</v>
+        <v>0.8067190947081676</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -4375,19 +4375,19 @@
         <v>311610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292353</v>
+        <v>290972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>330479</v>
+        <v>330310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7213061510789742</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6767314335712474</v>
+        <v>0.6735339382422929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7649827780493899</v>
+        <v>0.7645916246349697</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>16651</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10567</v>
+        <v>10616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23372</v>
+        <v>24070</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3474729839862857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2205065719046551</v>
+        <v>0.221541012114038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4877102037325676</v>
+        <v>0.5022857628165196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4740,19 +4740,19 @@
         <v>13319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8007</v>
+        <v>8263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19463</v>
+        <v>19349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2839881744463428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1707270017168305</v>
+        <v>0.176178905985058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.415000402620441</v>
+        <v>0.4125608206604882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -4761,19 +4761,19 @@
         <v>29970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22165</v>
+        <v>21982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38674</v>
+        <v>40116</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3160728517135045</v>
+        <v>0.3160728517135044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2337563436375424</v>
+        <v>0.2318277981033826</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4078722944842844</v>
+        <v>0.4230823269063949</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>31270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24549</v>
+        <v>23851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37354</v>
+        <v>37305</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6525270160137144</v>
+        <v>0.6525270160137143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5122897962674327</v>
+        <v>0.4977142371834805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7794934280953452</v>
+        <v>0.778458987885962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -4811,19 +4811,19 @@
         <v>33580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27436</v>
+        <v>27550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38892</v>
+        <v>38636</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7160118255536571</v>
+        <v>0.7160118255536572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5849995973795609</v>
+        <v>0.5874391793395122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8292729982831697</v>
+        <v>0.8238210940149424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -4832,19 +4832,19 @@
         <v>64849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56145</v>
+        <v>54703</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72654</v>
+        <v>72837</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6839271482864956</v>
+        <v>0.6839271482864955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5921277055157155</v>
+        <v>0.5769176730936052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7662436563624576</v>
+        <v>0.7681722018966175</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>15652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9187</v>
+        <v>8933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23738</v>
+        <v>23502</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2865714871752291</v>
+        <v>0.286571487175229</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1682132402044899</v>
+        <v>0.1635529881256702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4346172518209444</v>
+        <v>0.4303043644271251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4957,19 +4957,19 @@
         <v>15453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9626</v>
+        <v>8947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25180</v>
+        <v>26737</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2216703063018439</v>
+        <v>0.221670306301844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1380779166254756</v>
+        <v>0.1283477724304696</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.361210622388447</v>
+        <v>0.3835426663141701</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -4978,19 +4978,19 @@
         <v>31105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21907</v>
+        <v>21381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42730</v>
+        <v>42612</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2501816421586892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.176201877798598</v>
+        <v>0.1719715528496228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3436848254614294</v>
+        <v>0.3427337939218211</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>38966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30880</v>
+        <v>31116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45431</v>
+        <v>45685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.713428512824771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5653827481790551</v>
+        <v>0.5696956355728747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.83178675979551</v>
+        <v>0.8364470118743299</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -5028,19 +5028,19 @@
         <v>54258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44531</v>
+        <v>42974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60085</v>
+        <v>60764</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.778329693698156</v>
+        <v>0.7783296936981562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6387893776115524</v>
+        <v>0.6164573336858301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.861922083374524</v>
+        <v>0.8716522275695301</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -5049,19 +5049,19 @@
         <v>93224</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>81599</v>
+        <v>81717</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102422</v>
+        <v>102948</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7498183578413109</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6563151745385706</v>
+        <v>0.6572662060781788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.823798122201402</v>
+        <v>0.8280284471503773</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>15451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9209</v>
+        <v>9845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21634</v>
+        <v>22139</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4061667565757914</v>
+        <v>0.4061667565757916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.242078075904653</v>
+        <v>0.2587843206314475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5686917805112831</v>
+        <v>0.5819747549765091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5174,19 +5174,19 @@
         <v>9184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5157</v>
+        <v>5493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14260</v>
+        <v>15188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1846063921911195</v>
+        <v>0.1846063921911196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1036660144389343</v>
+        <v>0.1104086103052137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2866455526919811</v>
+        <v>0.3053021482748736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -5195,19 +5195,19 @@
         <v>24635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16901</v>
+        <v>17593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33400</v>
+        <v>34754</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.280614825520057</v>
+        <v>0.2806148255200568</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.192514723204074</v>
+        <v>0.2004039951746477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3804573039799276</v>
+        <v>0.3958734777334797</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>22591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16408</v>
+        <v>15903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28833</v>
+        <v>28197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5938332434242086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4313082194887166</v>
+        <v>0.4180252450234916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7579219240953466</v>
+        <v>0.7412156793685526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -5245,19 +5245,19 @@
         <v>40564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35488</v>
+        <v>34560</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44591</v>
+        <v>44255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8153936078088804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7133544473080187</v>
+        <v>0.6946978517251264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8963339855610655</v>
+        <v>0.8895913896947863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -5266,19 +5266,19 @@
         <v>63155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54390</v>
+        <v>53036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70889</v>
+        <v>70197</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7193851744799433</v>
+        <v>0.719385174479943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6195426960200725</v>
+        <v>0.6041265222665201</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8074852767959261</v>
+        <v>0.7995960048253523</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>20448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13696</v>
+        <v>14411</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27538</v>
+        <v>27965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3165373066021526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2120242980557651</v>
+        <v>0.2230838938237036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4262921583586142</v>
+        <v>0.4329066347459753</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5391,19 +5391,19 @@
         <v>19330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13726</v>
+        <v>13911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26025</v>
+        <v>25861</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2443376537070453</v>
+        <v>0.2443376537070452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1735100020238635</v>
+        <v>0.1758376479966651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3289744287879736</v>
+        <v>0.3268965008436274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5412,19 +5412,19 @@
         <v>39777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31484</v>
+        <v>31456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49833</v>
+        <v>49573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2767918630948427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2190863706829332</v>
+        <v>0.2188911148551713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3467665251156429</v>
+        <v>0.3449569193885924</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>44150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37060</v>
+        <v>36633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50902</v>
+        <v>50187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6834626933978474</v>
+        <v>0.6834626933978476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5737078416413854</v>
+        <v>0.5670933652540253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7879757019442349</v>
+        <v>0.7769161061762966</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -5462,19 +5462,19 @@
         <v>59780</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53085</v>
+        <v>53249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65384</v>
+        <v>65199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7556623462929549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6710255712120264</v>
+        <v>0.6731034991563727</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8264899979761365</v>
+        <v>0.8241623520033348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -5483,19 +5483,19 @@
         <v>103931</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93875</v>
+        <v>94135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112224</v>
+        <v>112252</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7232081369051573</v>
+        <v>0.7232081369051574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6532334748843569</v>
+        <v>0.6550430806114075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7809136293170668</v>
+        <v>0.7811088851448287</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>68202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3324037477316307</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -5608,19 +5608,19 @@
         <v>57285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2333703856574512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>162</v>
@@ -5629,19 +5629,19 @@
         <v>125487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2784601466698143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>136976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122141</v>
+        <v>122915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149886</v>
+        <v>150981</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6675962522683692</v>
+        <v>0.6675962522683695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5952920129037397</v>
+        <v>0.5990673065573344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7305146953317995</v>
+        <v>0.7358546816128879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>259</v>
@@ -5679,19 +5679,19 @@
         <v>188182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174403</v>
+        <v>174192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198903</v>
+        <v>199023</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7666296143425489</v>
+        <v>0.7666296143425487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7104965916533682</v>
+        <v>0.7096361386225973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8103044826521524</v>
+        <v>0.8107947361132649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>410</v>
@@ -5700,19 +5700,19 @@
         <v>325158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>307696</v>
+        <v>304053</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345230</v>
+        <v>340878</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7215398533301856</v>
+        <v>0.7215398533301854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6827897024864386</v>
+        <v>0.6747061817311881</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7660804308755171</v>
+        <v>0.7564225187734301</v>
       </c>
     </row>
     <row r="18">
